--- a/Data/fundamentals.xlsx
+++ b/Data/fundamentals.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markbogorad/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markbogorad/Desktop/NYU_MFE/Semester_2/1.2_Trading_Energy_Derivatives_MATH_GA_2800/Oil_Project/Systematic_Energy_Trading/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7017D7E2-DA7D-8E48-9D55-3B475D7463A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E238998E-19B6-2A42-8A09-AF3078302490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{03691848-3080-2F4D-A00E-5DFB07703539}"/>
+    <workbookView xWindow="80" yWindow="700" windowWidth="19780" windowHeight="17260" xr2:uid="{03691848-3080-2F4D-A00E-5DFB07703539}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Freight" sheetId="1" r:id="rId1"/>
+    <sheet name="Inventories" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -410,4 +411,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4FE5D4C-140E-6A43-8B06-A40B72B1B36B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>